--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,21 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,55 +91,58 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>relief</t>
   </si>
   <si>
     <t>nice</t>
@@ -148,55 +151,49 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>increase</t>
@@ -557,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -676,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8595890410958904</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C4">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -726,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
@@ -900,13 +897,13 @@
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9216710182767625</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
@@ -1026,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5925925925925926</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.9084507042253521</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.439922480620155</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C12">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.392156862745098</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3066666666666666</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2214765100671141</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1273,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1302,13 +1299,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8837209302325582</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1328,13 +1325,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.86875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1346,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1354,13 +1351,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1406,13 +1403,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1432,13 +1429,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1450,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1458,13 +1455,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1476,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1484,13 +1481,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1510,13 +1507,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1528,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1536,13 +1533,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.78</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1554,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1562,13 +1559,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.775</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1588,13 +1585,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.7558823529411764</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="L28">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M28">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1614,13 +1611,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1632,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1640,13 +1637,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.7254237288135593</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L30">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="M30">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1658,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1666,13 +1663,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1684,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1692,13 +1689,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.696969696969697</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1710,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1718,13 +1715,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.6914893617021277</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1736,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1744,13 +1741,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.6903765690376569</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L34">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1762,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1770,13 +1767,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.676923076923077</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1796,13 +1793,13 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.6629213483146067</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L36">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1822,13 +1819,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.6428571428571429</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1848,13 +1845,13 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5686274509803921</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1866,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1874,13 +1871,13 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5342465753424658</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1892,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1900,13 +1897,13 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5238095238095238</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1918,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1926,13 +1923,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4444444444444444</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1944,33 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L42">
-        <v>27</v>
-      </c>
-      <c r="M42">
-        <v>27</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
